--- a/medicine/Sexualité et sexologie/Claude_et_Greta/Claude_et_Greta.xlsx
+++ b/medicine/Sexualité et sexologie/Claude_et_Greta/Claude_et_Greta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude et Greta, également connu sous le titre Les Liaisons particulières[1], est un film français réalisé par Max Pécas, sorti en 1970.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude et Greta, également connu sous le titre Les Liaisons particulières, est un film français réalisé par Max Pécas, sorti en 1970.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Greta, une étudiante suédoise, arrive à Paris, où elle tombe sous la coupe d'une lesbienne nommée Claude. Pour gagner sa vie, Greta pose comme modèle pour un peintre célèbre, Mathias. Ce dernier, homosexuel, a une liaison avec son jeune assistant, Jean. Mais Jean et Greta s'éprennent alors l'un de l'autre...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Claude et Greta
 Autre titre : Les Liaisons particulières
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Astrid Frank : Greta
 Yves Vincent : Mathias
